--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorOtavio\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorOtavio\Documents\GitHub\Maldelbrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>Original</t>
   </si>
@@ -61,13 +64,25 @@
   <si>
     <t>Intervalo</t>
   </si>
+  <si>
+    <t>CPU : AMD FX 6100 Six-Core 3.3Ghz</t>
+  </si>
+  <si>
+    <t>GPU : AMD Radeon HD 7850</t>
+  </si>
+  <si>
+    <t>CPU : Intel Core2Duo E7400 3,06Ghz</t>
+  </si>
+  <si>
+    <t>GPU : AMD Radeon HD 7750</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,10 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,11 +432,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-63894176"/>
-        <c:axId val="-63901248"/>
+        <c:axId val="-1127119072"/>
+        <c:axId val="-1296386352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-63894176"/>
+        <c:axId val="-1127119072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +479,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-63901248"/>
+        <c:crossAx val="-1296386352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,7 +487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-63901248"/>
+        <c:axId val="-1296386352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +538,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-63894176"/>
+        <c:crossAx val="-1127119072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -810,7 +825,7 @@
             <c:numRef>
               <c:f>Plan1!$E$15</c:f>
               <c:numCache>
-                <c:formatCode>#.##0000</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.6730000000000005</c:v>
@@ -830,11 +845,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-1973388048"/>
-        <c:axId val="-1973376624"/>
+        <c:axId val="-1296384720"/>
+        <c:axId val="-1296386896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1973388048"/>
+        <c:axId val="-1296384720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +892,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1973376624"/>
+        <c:crossAx val="-1296386896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1973376624"/>
+        <c:axId val="-1296386896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +920,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -936,7 +951,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1973388048"/>
+        <c:crossAx val="-1296384720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="-63891456"/>
-        <c:axId val="-63887648"/>
+        <c:axId val="-1039226784"/>
+        <c:axId val="-1039230592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-63891456"/>
+        <c:axId val="-1039226784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1323,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-63887648"/>
+        <c:crossAx val="-1039230592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-63887648"/>
+        <c:axId val="-1039230592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1382,1683 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-63891456"/>
+        <c:crossAx val="-1039226784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AMD FX 6100 Six-Core 3.3Ghz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Plan1!$C$54,Plan1!$D$54,Plan1!$F$54)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>2.2308524329800012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3818752499999976</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75155203199999998</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Plan1!$C$54,Plan1!$D$54,Plan1!$F$54)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>2.2308524329800012</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3818752499999976</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.75155203199999998</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Plan1!$C$4:$D$4,Plan1!$F$4)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenCL CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Plan1!$C$52,Plan1!$D$52,Plan1!$F$52)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.234500200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.269499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1567999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1296381456"/>
+        <c:axId val="-1296380368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1296381456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1296380368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1296380368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1296381456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> AMD Radeon HD 7850</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Plan1!$E$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.423787152</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Plan1!$E$54</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.423787152</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenCL GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.2504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1039228416"/>
+        <c:axId val="-1039233856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1039228416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1039233856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1039233856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1039228416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Intel Core2Duo E7400 3,06Ghz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Plan1!$C$71,Plan1!$D$71,Plan1!$F$70)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.49178175718801337</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.57925757500000108</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99709999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Plan1!$C$71,Plan1!$D$71,Plan1!$F$70)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.49178175718801337</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.57925757500000108</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.99709999999999999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Plan1!$C$4:$D$4,Plan1!$F$4)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenCL CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Plan1!$C$69,Plan1!$D$69,Plan1!$F$69)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17.099599899999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.104500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.680899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1127116352"/>
+        <c:axId val="-1127112000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1127116352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1127112000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1127112000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1127116352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> AMD Radeon HD 7750</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Plan1!$E$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.54100000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Plan1!$E$70</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.54100000000000004</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenCL GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.8180000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="-1005343840"/>
+        <c:axId val="-1005343296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1005343840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1005343296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1005343296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#.##0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1005343840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,6 +3218,154 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
@@ -2578,6 +4417,2106 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3198,7 +7137,152 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Plan1"/>
+      <sheetName val="Plan2"/>
+      <sheetName val="Plan3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3464,10 +7548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="V72" sqref="V72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,547 +7561,1087 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>35.113</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>23.843</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5.1849999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>35.448</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>24.134</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3.15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>5.1680000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>35.618000000000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>24.042000000000002</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>3.266</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>5.3129999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>35.648000000000003</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>23.236000000000001</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>3.109</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>5.0960000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>35.460999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>23.300999999999998</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>4.1870000000000003</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>5.0670000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>35.957000000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>24.023</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>3.1829999999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>5.0549999999999997</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>35.314999999999998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>23.994</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>4.0910000000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>5.1630000000000003</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>35.484000000000002</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>23.827999999999999</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>3.3239999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>5.2480000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>34.948999999999998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>23.452000000000002</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>3.39</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>5.1840000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>35.284999999999997</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>23.928999999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5.1529999999999996</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f>AVERAGE(C5:C14)</f>
         <v>35.427800000000005</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
         <v>23.778200000000002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>3.6730000000000005</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>5.1631999999999989</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>AVEDEV(C5:C14)</f>
         <v>0.20984000000000053</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" ref="D16:F16" si="1">AVEDEV(D5:D14)</f>
         <v>0.26911999999999914</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>0.52320000000000011</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="1"/>
         <v>5.6400000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f>(C16*C15)/2</f>
         <v>3.7170847760000099</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f>(D16*D15)/2</f>
         <v>3.1995945919999902</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f>(E16*E15)/2</f>
         <v>0.96085680000000029</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f>(F16*F15)/2</f>
         <v>0.14560223999999999</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>38.061</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>36.999000000000002</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>13.071999999999999</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>13.071999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>39.164999999999999</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>36.728000000000002</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>10.215</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>10.215</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>39.741</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>36.671999999999997</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>12.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>12.5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>38.337000000000003</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>35.941000000000003</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>14.515000000000001</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>14.515000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>38.991999999999997</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>36.011000000000003</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>12.347</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>12.347</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>38.497999999999998</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>37.270000000000003</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>12.009</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>12.009</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>39.067</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>36.152999999999999</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>12.311999999999999</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>12.311999999999999</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>8</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>37.473999999999997</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>35.212000000000003</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>11.36</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>11.36</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>37.463000000000001</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>36.97</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>10.625999999999999</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>10.625999999999999</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>10</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>37.563000000000002</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>36.256999999999998</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>12.456</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>12.456</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f>AVERAGE(C25:C34)</f>
         <v>38.436099999999996</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" ref="D35" si="2">AVERAGE(D25:D34)</f>
         <v>36.421300000000002</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" ref="E35" si="3">AVERAGE(E25:E34)</f>
         <v>12.141200000000001</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" ref="F35" si="4">AVERAGE(F25:F34)</f>
         <v>12.141200000000001</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f>AVEDEV(C25:C34)</f>
         <v>0.65649999999999908</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <f t="shared" ref="D36:F36" si="5">AVEDEV(D25:D34)</f>
         <v>0.50649999999999973</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <f t="shared" si="5"/>
         <v>0.87095999999999962</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <f t="shared" si="5"/>
         <v>0.87095999999999962</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f>(C36*C35)/2</f>
         <v>12.616649824999982</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f>(D36*D35)/2</f>
         <v>9.2236942249999956</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f>(E36*E35)/2</f>
         <v>5.2872497759999986</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f>(F36*F35)/2</f>
         <v>5.2872497759999986</v>
       </c>
     </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20.124001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15.042999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.9420000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20.606999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.556</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20.013999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>13.057</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5.0229999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20.061001000000001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12.978999999999999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20.030999999999999</v>
+      </c>
+      <c r="D46" s="1">
+        <v>12.962999999999999</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.839</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4.9290000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1">
+        <v>19.968</v>
+      </c>
+      <c r="D47" s="1">
+        <v>12.962999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.6339999999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>5.2720000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20.124001</v>
+      </c>
+      <c r="D48" s="1">
+        <v>13.103999999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>5.085</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20.216999000000001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>12.994</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.79</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4.8979999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20.327000000000002</v>
+      </c>
+      <c r="D50" s="1">
+        <v>13.291</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3.4470000000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.8819999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20.872</v>
+      </c>
+      <c r="D51" s="1">
+        <v>13.041</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.2569999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <f>AVERAGE(C42:C51)</f>
+        <v>20.234500200000003</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:F52" si="6">AVERAGE(D42:D51)</f>
+        <v>13.269499999999999</v>
+      </c>
+      <c r="E52" s="2">
+        <f>AVERAGE(E42:E51)</f>
+        <v>3.2504</v>
+      </c>
+      <c r="F52" s="2">
+        <f>AVERAGE(F42:F51)</f>
+        <v>5.1567999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1">
+        <f>AVEDEV(C42:C51)</f>
+        <v>0.22049988000000126</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ref="D53:F53" si="7">AVEDEV(D42:D51)</f>
+        <v>0.35899999999999965</v>
+      </c>
+      <c r="E53" s="1">
+        <f>AVEDEV(F42:F51)</f>
+        <v>0.26075999999999999</v>
+      </c>
+      <c r="F53" s="1">
+        <f>AVEDEV(E42:E51)</f>
+        <v>0.29148000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <f>(C53*C52)/2</f>
+        <v>2.2308524329800012</v>
+      </c>
+      <c r="D54" s="1">
+        <f>(D53*D52)/2</f>
+        <v>2.3818752499999976</v>
+      </c>
+      <c r="E54" s="1">
+        <f>(E53*E52)/2</f>
+        <v>0.423787152</v>
+      </c>
+      <c r="F54" s="1">
+        <f>(F53*F52)/2</f>
+        <v>0.75155203199999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>17.139999</v>
+      </c>
+      <c r="D59" s="1">
+        <v>14.984999999999999</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="F59" s="1">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1">
+        <v>17.062000000000001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>15.031000000000001</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5.125</v>
+      </c>
+      <c r="F60" s="1">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="D61" s="1">
+        <v>15.125</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="F61" s="1">
+        <v>11.593</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <v>17.233999000000001</v>
+      </c>
+      <c r="D62" s="1">
+        <v>15.234</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="F62" s="1">
+        <v>12.109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <v>17.139999</v>
+      </c>
+      <c r="D63" s="1">
+        <v>15.045999999999999</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5.2649999999999997</v>
+      </c>
+      <c r="F63" s="1">
+        <v>9.1709999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="D64" s="1">
+        <v>15.061999999999999</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8.984</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>17.047001000000002</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15.015000000000001</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5.625</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10.218</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>17.093</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15.141</v>
+      </c>
+      <c r="E66" s="1">
+        <v>4.359</v>
+      </c>
+      <c r="F66" s="1">
+        <v>10.045999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>17.045999999999999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5.609</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1">
+        <v>17.172001000000002</v>
+      </c>
+      <c r="D68" s="1">
+        <v>15.156000000000001</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4.093</v>
+      </c>
+      <c r="F68" s="1">
+        <v>11.827999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2">
+        <f>AVERAGE(C59:C68)</f>
+        <v>17.099599899999998</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69:F69" si="8">AVERAGE(D59:D68)</f>
+        <v>15.104500000000002</v>
+      </c>
+      <c r="E69" s="2">
+        <f>AVERAGE(E59:E68)</f>
+        <v>4.8180000000000005</v>
+      </c>
+      <c r="F69" s="2">
+        <f>AVERAGE(F59:F68)</f>
+        <v>10.680899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <f>AVEDEV(C59:C68)</f>
+        <v>5.7519679999999698E-2</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:F70" si="9">AVEDEV(D59:D68)</f>
+        <v>7.6700000000000129E-2</v>
+      </c>
+      <c r="E70" s="1">
+        <f>AVEDEV(E59:E68)</f>
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F70" s="1">
+        <f>AVEDEV(F59:F68)</f>
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <f>(C70*C69)/2</f>
+        <v>0.49178175718801337</v>
+      </c>
+      <c r="D71" s="1">
+        <f>(D70*D69)/2</f>
+        <v>0.57925757500000108</v>
+      </c>
+      <c r="E71" s="1">
+        <f>(E70*E69)/2</f>
+        <v>1.3032690000000002</v>
+      </c>
+      <c r="F71" s="1">
+        <f>(F70*F69)/2</f>
+        <v>5.324962695</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B39:F39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
